--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/14 PRUEBAS CIERRE CONTABLE.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/14 PRUEBAS CIERRE CONTABLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7F83F-CE45-4762-876A-294E7B8AEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCA86F-1EBC-4719-AC2A-4D90813617BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Cumplimiento con Principios Contables</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>Reviso:</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Atributos examinados</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    REVISIÓN DE CIERRE CONTABLE</t>
-  </si>
-  <si>
     <t>Número de Prueba</t>
   </si>
   <si>
@@ -150,12 +144,6 @@
     <t>Cumple con el principio de exactitud.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     Entidad XXXXXXXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                    Auditor </t>
   </si>
   <si>
@@ -172,13 +160,28 @@
   </si>
   <si>
     <t>A-14</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>REVISIÓN DE CIERRE CONTABLE</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +206,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -401,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,30 +408,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -446,36 +435,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,73 +716,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="1524000"/>
-          <a:ext cx="1190625" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1059,14 +984,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:K34"/>
+  <dimension ref="B3:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -1078,102 +1004,111 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="4" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="28" t="s">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="J5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="E6" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="J6" s="7" t="s">
+      <c r="F6" s="25"/>
+      <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="E7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="E9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="B9" s="20"/>
+      <c r="E9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -1181,167 +1116,174 @@
     </row>
     <row r="13" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="2" t="s">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="F17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="F18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="H34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="17"/>
-      <c r="G33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B3:B6"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
